--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/sohpccbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2DD0-3A6E-49DF-9F0E-7A230114D7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611DE4FB-0150-F047-B485-61CB63D0E1C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1290,6 +1290,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1849,21 +1850,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="66">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1871,127 +1875,127 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -2013,17 +2017,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2031,10 +2035,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2042,16 +2046,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2059,10 +2063,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2070,13 +2074,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" ht="21" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2092,12 +2096,12 @@
       <c r="G33" s="55"/>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
@@ -2105,13 +2109,13 @@
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="G38" s="57"/>
       <c r="H38" s="58"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="59" t="s">
         <v>40</v>
       </c>
@@ -2135,7 +2139,7 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2152,7 @@
       <c r="G40" s="61"/>
       <c r="H40" s="62"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="G41" s="64"/>
       <c r="H41" s="65"/>
     </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
         <v>131</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>113</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="18" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="29" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="29" t="s">
         <v>57</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="29" t="s">
         <v>58</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="29" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -2505,7 +2509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="29" t="s">
         <v>61</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="29" t="s">
         <v>62</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="29" t="s">
         <v>63</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2629,7 +2633,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
@@ -2638,7 +2642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M60" t="s">
         <v>10</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="37" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="38" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="37" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="37" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="41" t="s">
         <v>55</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="41" t="s">
         <v>56</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="41" t="s">
         <v>57</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="41" t="s">
         <v>58</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="41" t="s">
         <v>59</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="41" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="41" t="s">
         <v>61</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="41" t="s">
         <v>62</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M75" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M76" t="s">
         <v>23</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M77" t="s">
         <v>24</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M78" t="s">
         <v>25</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M79" t="s">
         <v>26</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M80" t="s">
         <v>27</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M81" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M82" t="s">
         <v>29</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:14" x14ac:dyDescent="0.2">
       <c r="M83" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2930,13 +2934,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2944,10 +2948,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2955,13 +2959,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -3005,15 +3009,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.7109375" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" customWidth="1"/>
-    <col min="28" max="43" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" customWidth="1"/>
+    <col min="28" max="43" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>124</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
